--- a/flyers/Grimbergen_2018-2019.xlsx
+++ b/flyers/Grimbergen_2018-2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
   <si>
     <t xml:space="preserve"> Juli 2018</t>
   </si>
@@ -442,7 +442,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,10 +495,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -528,10 +524,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -706,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U19" activeCellId="0" sqref="U19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -952,12 +944,8 @@
         <v>5</v>
       </c>
       <c r="O7" s="7"/>
-      <c r="P7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1549,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="7" t="n">
@@ -1592,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="L24" s="8"/>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N24" s="7" t="n">
@@ -1613,7 +1601,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="7" t="n">
@@ -1629,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="8"/>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="7" t="n">
@@ -1666,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="L26" s="8"/>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="N26" s="7" t="n">
@@ -1701,7 +1689,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="N27" s="7" t="n">
@@ -1736,7 +1724,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="8"/>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="N28" s="7" t="n">
@@ -1771,7 +1759,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N29" s="7" t="n">
@@ -1802,7 +1790,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="7" t="n">
@@ -1839,7 +1827,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N31" s="7" t="n">
@@ -1870,7 +1858,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N32" s="7" t="n">
@@ -1901,26 +1889,26 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="13"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="3"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="15"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -1942,10 +1930,10 @@
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="16"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="1"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="17" t="s">
+      <c r="O35" s="16" t="s">
         <v>20</v>
       </c>
       <c r="P35" s="2"/>
@@ -2290,7 +2278,7 @@
       <c r="N44" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="O44" s="18" t="s">
+      <c r="O44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="P44" s="10"/>
@@ -2335,7 +2323,7 @@
       <c r="N45" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="17" t="s">
         <v>22</v>
       </c>
       <c r="P45" s="10"/>
@@ -2493,7 +2481,7 @@
       <c r="N49" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="O49" s="19"/>
+      <c r="O49" s="18"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
     </row>
@@ -2594,7 +2582,7 @@
       <c r="H52" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="I52" s="20" t="s">
+      <c r="I52" s="19" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="11" t="s">
@@ -2701,7 +2689,7 @@
       <c r="D55" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="20" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="8"/>
@@ -2816,7 +2804,7 @@
       <c r="B58" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="11" t="s">
         <v>15</v>
       </c>
@@ -2851,7 +2839,7 @@
       <c r="B59" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="12" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +2880,7 @@
       <c r="B60" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="18"/>
       <c r="D60" s="11" t="s">
         <v>15</v>
       </c>
@@ -2927,7 +2915,7 @@
       <c r="B61" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C61" s="22"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="8"/>
@@ -3160,68 +3148,68 @@
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="23" t="s">
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J69" s="24"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="23" t="s">
+      <c r="J69" s="22"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="25"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="29" t="s">
+      <c r="F70" s="24"/>
+      <c r="G70" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28" t="s">
+      <c r="H70" s="26"/>
+      <c r="I70" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K70" s="28" t="s">
+      <c r="K70" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L70" s="26"/>
-      <c r="M70" s="29" t="s">
+      <c r="L70" s="24"/>
+      <c r="M70" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28" t="s">
+      <c r="N70" s="26"/>
+      <c r="O70" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P70" s="28" t="s">
+      <c r="P70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q70" s="28" t="s">
+      <c r="Q70" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3232,39 +3220,39 @@
       <c r="B71" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="28" t="n">
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I71" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="26"/>
-      <c r="M71" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71" s="28" t="n">
+      <c r="I71" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="24"/>
+      <c r="M71" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="O71" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P71" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q71" s="33" t="s">
+      <c r="O71" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q71" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3275,29 +3263,29 @@
       <c r="B72" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="28" t="n">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N72" s="28" t="n">
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N72" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
@@ -3306,29 +3294,29 @@
       <c r="B73" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="28" t="n">
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N73" s="28" t="n">
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N73" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
@@ -3337,33 +3325,33 @@
       <c r="B74" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="28" t="n">
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="I74" s="28"/>
-      <c r="J74" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N74" s="28" t="n">
+      <c r="I74" s="26"/>
+      <c r="J74" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="24"/>
+      <c r="M74" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
@@ -3372,33 +3360,33 @@
       <c r="B75" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="28" t="n">
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="I75" s="28"/>
-      <c r="J75" s="34" t="s">
+      <c r="I75" s="26"/>
+      <c r="J75" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K75" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N75" s="28" t="n">
+      <c r="K75" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="24"/>
+      <c r="M75" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="O75" s="35"/>
-      <c r="P75" s="30"/>
-      <c r="Q75" s="30"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
     </row>
     <row r="76" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
@@ -3407,33 +3395,33 @@
       <c r="B76" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="28" t="n">
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="I76" s="28"/>
-      <c r="J76" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N76" s="28" t="n">
+      <c r="I76" s="26"/>
+      <c r="J76" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K76" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="O76" s="35"/>
-      <c r="P76" s="30"/>
-      <c r="Q76" s="30"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="28"/>
+      <c r="Q76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
@@ -3442,33 +3430,33 @@
       <c r="B77" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H77" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O77" s="30"/>
-      <c r="P77" s="30"/>
-      <c r="Q77" s="30"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N77" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O77" s="28"/>
+      <c r="P77" s="28"/>
+      <c r="Q77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
@@ -3477,39 +3465,39 @@
       <c r="B78" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="34" t="s">
+      <c r="C78" s="26"/>
+      <c r="D78" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E78" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I78" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K78" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N78" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="O78" s="30"/>
-      <c r="P78" s="30"/>
-      <c r="Q78" s="30"/>
+      <c r="E78" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N78" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O78" s="28"/>
+      <c r="P78" s="28"/>
+      <c r="Q78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
@@ -3518,33 +3506,33 @@
       <c r="B79" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N79" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N79" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O79" s="28"/>
+      <c r="P79" s="28"/>
+      <c r="Q79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
@@ -3553,29 +3541,29 @@
       <c r="B80" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N80" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H80" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N80" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
@@ -3584,41 +3572,41 @@
       <c r="B81" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C81" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="I81" s="36"/>
-      <c r="J81" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K81" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N81" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O81" s="36"/>
-      <c r="P81" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q81" s="32" t="s">
+      <c r="C81" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I81" s="34"/>
+      <c r="J81" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="24"/>
+      <c r="M81" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O81" s="34"/>
+      <c r="P81" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q81" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3629,35 +3617,35 @@
       <c r="B82" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="I82" s="36"/>
-      <c r="J82" s="34" t="s">
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I82" s="34"/>
+      <c r="J82" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K82" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N82" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="O82" s="36"/>
-      <c r="P82" s="34" t="s">
+      <c r="K82" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L82" s="24"/>
+      <c r="M82" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N82" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O82" s="34"/>
+      <c r="P82" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q82" s="32" t="s">
+      <c r="Q82" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3668,35 +3656,35 @@
       <c r="B83" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="I83" s="36"/>
-      <c r="J83" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="26"/>
-      <c r="M83" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N83" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="O83" s="36"/>
-      <c r="P83" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q83" s="32" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I83" s="34"/>
+      <c r="J83" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="24"/>
+      <c r="M83" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83" s="34"/>
+      <c r="P83" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q83" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3707,33 +3695,33 @@
       <c r="B84" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="26"/>
-      <c r="G84" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="I84" s="36"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N84" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="O84" s="36"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I84" s="34"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="O84" s="34"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
@@ -3742,43 +3730,43 @@
       <c r="B85" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="34" t="s">
+      <c r="C85" s="34"/>
+      <c r="D85" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E85" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="26"/>
-      <c r="G85" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="I85" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K85" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L85" s="26"/>
-      <c r="M85" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N85" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="O85" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="P85" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q85" s="32" t="s">
+      <c r="E85" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I85" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K85" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L85" s="24"/>
+      <c r="M85" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="O85" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P85" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q85" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3789,35 +3777,35 @@
       <c r="B86" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="26"/>
-      <c r="G86" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="28" t="n">
+      <c r="C86" s="34"/>
+      <c r="D86" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="I86" s="35"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N86" s="28" t="n">
+      <c r="I86" s="33"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N86" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="O86" s="37" t="s">
+      <c r="O86" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33" t="s">
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3828,31 +3816,31 @@
       <c r="B87" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="28" t="n">
+      <c r="C87" s="34"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="I87" s="35"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N87" s="28" t="n">
+      <c r="I87" s="33"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N87" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="O87" s="37" t="s">
+      <c r="O87" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33" t="s">
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3863,41 +3851,41 @@
       <c r="B88" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C88" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="28" t="n">
+      <c r="C88" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="24"/>
+      <c r="G88" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="I88" s="36"/>
-      <c r="J88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="26"/>
-      <c r="M88" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N88" s="28" t="n">
+      <c r="I88" s="34"/>
+      <c r="J88" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="24"/>
+      <c r="M88" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N88" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="O88" s="36"/>
-      <c r="P88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q88" s="32" t="s">
+      <c r="O88" s="34"/>
+      <c r="P88" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q88" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3908,35 +3896,35 @@
       <c r="B89" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="28" t="n">
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="I89" s="36"/>
-      <c r="J89" s="34" t="s">
+      <c r="I89" s="34"/>
+      <c r="J89" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K89" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="26"/>
-      <c r="M89" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N89" s="28" t="n">
+      <c r="K89" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="24"/>
+      <c r="M89" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N89" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="O89" s="36"/>
-      <c r="P89" s="34" t="s">
+      <c r="O89" s="34"/>
+      <c r="P89" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q89" s="32" t="s">
+      <c r="Q89" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3947,35 +3935,35 @@
       <c r="B90" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="28" t="n">
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="I90" s="36"/>
-      <c r="J90" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K90" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="26"/>
-      <c r="M90" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N90" s="28" t="n">
+      <c r="I90" s="34"/>
+      <c r="J90" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K90" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="24"/>
+      <c r="M90" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N90" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="O90" s="36"/>
-      <c r="P90" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q90" s="32" t="s">
+      <c r="O90" s="34"/>
+      <c r="P90" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q90" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3986,33 +3974,33 @@
       <c r="B91" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F91" s="26"/>
-      <c r="G91" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="28" t="n">
+      <c r="C91" s="26"/>
+      <c r="D91" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="24"/>
+      <c r="G91" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="I91" s="36"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="26"/>
-      <c r="M91" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N91" s="28" t="n">
+      <c r="I91" s="34"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N91" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="O91" s="36"/>
-      <c r="P91" s="28"/>
-      <c r="Q91" s="28"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="26"/>
     </row>
     <row r="92" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
@@ -4021,43 +4009,43 @@
       <c r="B92" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="34" t="s">
+      <c r="C92" s="26"/>
+      <c r="D92" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E92" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F92" s="26"/>
-      <c r="G92" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="28" t="n">
+      <c r="E92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="I92" s="31" t="s">
+      <c r="I92" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J92" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K92" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L92" s="26"/>
-      <c r="M92" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N92" s="28" t="n">
+      <c r="J92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92" s="24"/>
+      <c r="M92" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="O92" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="P92" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q92" s="32" t="s">
+      <c r="O92" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P92" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q92" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4068,33 +4056,33 @@
       <c r="B93" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C93" s="28"/>
-      <c r="D93" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" s="28" t="n">
+      <c r="C93" s="26"/>
+      <c r="D93" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="24"/>
+      <c r="G93" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H93" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="I93" s="30"/>
-      <c r="J93" s="30"/>
-      <c r="K93" s="30"/>
-      <c r="L93" s="26"/>
-      <c r="M93" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N93" s="28" t="n">
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N93" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="O93" s="35"/>
-      <c r="P93" s="30"/>
-      <c r="Q93" s="30"/>
+      <c r="O93" s="33"/>
+      <c r="P93" s="28"/>
+      <c r="Q93" s="28"/>
     </row>
     <row r="94" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
@@ -4103,29 +4091,29 @@
       <c r="B94" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H94" s="28" t="n">
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="I94" s="30"/>
-      <c r="J94" s="30"/>
-      <c r="K94" s="30"/>
-      <c r="L94" s="26"/>
-      <c r="M94" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N94" s="28" t="n">
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N94" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="O94" s="35"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="30"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
     </row>
     <row r="95" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
@@ -4134,41 +4122,41 @@
       <c r="B95" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C95" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="26"/>
-      <c r="G95" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="28" t="n">
+      <c r="C95" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="24"/>
+      <c r="G95" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="I95" s="28"/>
-      <c r="J95" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="26"/>
-      <c r="M95" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N95" s="28" t="n">
+      <c r="I95" s="26"/>
+      <c r="J95" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="24"/>
+      <c r="M95" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N95" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="O95" s="28"/>
-      <c r="P95" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q95" s="32" t="s">
+      <c r="O95" s="26"/>
+      <c r="P95" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q95" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4179,35 +4167,35 @@
       <c r="B96" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="28" t="n">
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="28"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="I96" s="28"/>
-      <c r="J96" s="34" t="s">
+      <c r="I96" s="26"/>
+      <c r="J96" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K96" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L96" s="26"/>
-      <c r="M96" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N96" s="28" t="n">
+      <c r="K96" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="24"/>
+      <c r="M96" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N96" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="O96" s="28"/>
-      <c r="P96" s="34" t="s">
+      <c r="O96" s="26"/>
+      <c r="P96" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q96" s="32" t="s">
+      <c r="Q96" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4218,35 +4206,35 @@
       <c r="B97" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="28" t="n">
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="I97" s="28"/>
-      <c r="J97" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L97" s="26"/>
-      <c r="M97" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N97" s="28" t="n">
+      <c r="I97" s="26"/>
+      <c r="J97" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="24"/>
+      <c r="M97" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N97" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="O97" s="28"/>
-      <c r="P97" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q97" s="33" t="s">
+      <c r="O97" s="26"/>
+      <c r="P97" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q97" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4257,33 +4245,33 @@
       <c r="B98" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="28" t="n">
+      <c r="C98" s="34"/>
+      <c r="D98" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="24"/>
+      <c r="G98" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="26"/>
-      <c r="M98" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N98" s="28" t="n">
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N98" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="O98" s="28"/>
-      <c r="P98" s="28"/>
-      <c r="Q98" s="28"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
     </row>
     <row r="99" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
@@ -4292,33 +4280,33 @@
       <c r="B99" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="34" t="s">
+      <c r="C99" s="34"/>
+      <c r="D99" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="26"/>
-      <c r="G99" s="29"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="26"/>
-      <c r="M99" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N99" s="28" t="n">
+      <c r="E99" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="24"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="O99" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P99" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q99" s="33" t="s">
+      <c r="O99" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P99" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q99" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4329,27 +4317,27 @@
       <c r="B100" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="26"/>
-      <c r="M100" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N100" s="28" t="n">
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N100" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="O100" s="35"/>
-      <c r="P100" s="30"/>
-      <c r="Q100" s="30"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
@@ -4358,110 +4346,110 @@
       <c r="B101" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="26"/>
-      <c r="M101" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N101" s="28" t="n">
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N101" s="26" t="n">
         <v>31</v>
       </c>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="30"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
     </row>
     <row r="102" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="24"/>
+      <c r="Q102" s="24"/>
     </row>
     <row r="103" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="23" t="s">
+      <c r="C103" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="23" t="s">
+      <c r="D103" s="22"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="J103" s="24"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="27"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="23" t="s">
+      <c r="J103" s="22"/>
+      <c r="K103" s="23"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="25"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="23"/>
     </row>
     <row r="104" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B104" s="7"/>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="28" t="s">
+      <c r="E104" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F104" s="26"/>
-      <c r="G104" s="29" t="s">
+      <c r="F104" s="24"/>
+      <c r="G104" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28" t="s">
+      <c r="H104" s="26"/>
+      <c r="I104" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J104" s="28" t="s">
+      <c r="J104" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K104" s="28" t="s">
+      <c r="K104" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L104" s="26"/>
-      <c r="M104" s="29" t="s">
+      <c r="L104" s="24"/>
+      <c r="M104" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28" t="s">
+      <c r="N104" s="26"/>
+      <c r="O104" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P104" s="28" t="s">
+      <c r="P104" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q104" s="28" t="s">
+      <c r="Q104" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4472,35 +4460,35 @@
       <c r="B105" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="26"/>
-      <c r="G105" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="28" t="n">
+      <c r="C105" s="34"/>
+      <c r="D105" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="24"/>
+      <c r="G105" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I105" s="40" t="s">
+      <c r="I105" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N105" s="28" t="n">
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N105" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="O105" s="30"/>
-      <c r="P105" s="30"/>
-      <c r="Q105" s="33" t="s">
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4511,33 +4499,33 @@
       <c r="B106" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="34" t="s">
+      <c r="C106" s="34"/>
+      <c r="D106" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H106" s="28" t="n">
+      <c r="E106" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="24"/>
+      <c r="G106" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H106" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="26"/>
-      <c r="M106" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N106" s="28" t="n">
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="24"/>
+      <c r="M106" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N106" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="O106" s="30"/>
-      <c r="P106" s="30"/>
-      <c r="Q106" s="33" t="s">
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4548,41 +4536,41 @@
       <c r="B107" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C107" s="36"/>
-      <c r="D107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="26"/>
-      <c r="G107" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" s="28" t="n">
+      <c r="C107" s="34"/>
+      <c r="D107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="24"/>
+      <c r="G107" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="I107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L107" s="26"/>
-      <c r="M107" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N107" s="28" t="n">
+      <c r="I107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107" s="24"/>
+      <c r="M107" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N107" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="O107" s="28"/>
-      <c r="P107" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q107" s="32" t="s">
+      <c r="O107" s="26"/>
+      <c r="P107" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q107" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4593,31 +4581,31 @@
       <c r="B108" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C108" s="36"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="28" t="n">
+      <c r="C108" s="34"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
-      <c r="L108" s="26"/>
-      <c r="M108" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N108" s="28" t="n">
+      <c r="I108" s="28"/>
+      <c r="J108" s="28"/>
+      <c r="K108" s="28"/>
+      <c r="L108" s="24"/>
+      <c r="M108" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N108" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="O108" s="28"/>
-      <c r="P108" s="34" t="s">
+      <c r="O108" s="26"/>
+      <c r="P108" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q108" s="32" t="s">
+      <c r="Q108" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4628,37 +4616,37 @@
       <c r="B109" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C109" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="26"/>
-      <c r="G109" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="28" t="n">
+      <c r="C109" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H109" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="26"/>
-      <c r="M109" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N109" s="28" t="n">
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="24"/>
+      <c r="M109" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N109" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="O109" s="28"/>
-      <c r="P109" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q109" s="32" t="s">
+      <c r="O109" s="26"/>
+      <c r="P109" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q109" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4669,33 +4657,33 @@
       <c r="B110" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H110" s="28" t="n">
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="I110" s="28"/>
-      <c r="J110" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K110" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L110" s="26"/>
-      <c r="M110" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N110" s="28" t="n">
+      <c r="I110" s="26"/>
+      <c r="J110" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" s="24"/>
+      <c r="M110" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N110" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="33" t="s">
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4706,37 +4694,37 @@
       <c r="B111" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C111" s="35"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="30"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="I111" s="28"/>
-      <c r="J111" s="34" t="s">
+      <c r="C111" s="33"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="I111" s="26"/>
+      <c r="J111" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K111" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L111" s="26"/>
-      <c r="M111" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N111" s="28" t="n">
-        <v>7</v>
-      </c>
-      <c r="O111" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P111" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q111" s="32" t="s">
+      <c r="K111" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="24"/>
+      <c r="M111" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N111" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O111" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P111" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q111" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4747,33 +4735,33 @@
       <c r="B112" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C112" s="30"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="30"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I112" s="28"/>
-      <c r="J112" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K112" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L112" s="26"/>
-      <c r="M112" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N112" s="28" t="n">
-        <v>8</v>
-      </c>
-      <c r="O112" s="30"/>
-      <c r="P112" s="30"/>
-      <c r="Q112" s="30"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="I112" s="26"/>
+      <c r="J112" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="24"/>
+      <c r="M112" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N112" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O112" s="28"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28"/>
     </row>
     <row r="113" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="s">
@@ -4782,29 +4770,29 @@
       <c r="B113" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C113" s="30"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="30"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="26"/>
-      <c r="M113" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N113" s="28" t="n">
-        <v>9</v>
-      </c>
-      <c r="O113" s="30"/>
-      <c r="P113" s="30"/>
-      <c r="Q113" s="30"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N113" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="O113" s="28"/>
+      <c r="P113" s="28"/>
+      <c r="Q113" s="28"/>
     </row>
     <row r="114" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="s">
@@ -4813,37 +4801,37 @@
       <c r="B114" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="I114" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K114" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L114" s="26"/>
-      <c r="M114" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N114" s="28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O114" s="40" t="s">
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H114" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="24"/>
+      <c r="M114" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N114" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O114" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39"/>
     </row>
     <row r="115" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
@@ -4852,31 +4840,31 @@
       <c r="B115" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="C115" s="30"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="30"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H115" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="I115" s="30"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="26"/>
-      <c r="M115" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O115" s="28"/>
-      <c r="P115" s="34" t="s">
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H115" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="24"/>
+      <c r="M115" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O115" s="26"/>
+      <c r="P115" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q115" s="32" t="s">
+      <c r="Q115" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4887,31 +4875,31 @@
       <c r="B116" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="I116" s="30"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="26"/>
-      <c r="M116" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N116" s="28" t="n">
-        <v>12</v>
-      </c>
-      <c r="O116" s="28"/>
-      <c r="P116" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q116" s="33" t="s">
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="24"/>
+      <c r="M116" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N116" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="O116" s="26"/>
+      <c r="P116" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q116" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4922,33 +4910,33 @@
       <c r="B117" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="C117" s="35"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H117" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="I117" s="28"/>
-      <c r="J117" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K117" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L117" s="26"/>
-      <c r="M117" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N117" s="28" t="n">
-        <v>13</v>
-      </c>
-      <c r="O117" s="28"/>
-      <c r="P117" s="28"/>
-      <c r="Q117" s="28"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I117" s="26"/>
+      <c r="J117" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K117" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" s="24"/>
+      <c r="M117" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N117" s="26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
     </row>
     <row r="118" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
@@ -4957,37 +4945,37 @@
       <c r="B118" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="C118" s="35"/>
-      <c r="D118" s="30"/>
-      <c r="E118" s="30"/>
-      <c r="F118" s="26"/>
-      <c r="G118" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="I118" s="28"/>
-      <c r="J118" s="34" t="s">
+      <c r="C118" s="33"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="I118" s="26"/>
+      <c r="J118" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K118" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L118" s="26"/>
-      <c r="M118" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N118" s="28" t="n">
-        <v>14</v>
-      </c>
-      <c r="O118" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P118" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q118" s="33" t="s">
+      <c r="K118" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="24"/>
+      <c r="M118" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N118" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="O118" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P118" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q118" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4998,33 +4986,33 @@
       <c r="B119" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C119" s="30"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="30"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="I119" s="28"/>
-      <c r="J119" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K119" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" s="26"/>
-      <c r="M119" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N119" s="28" t="n">
-        <v>15</v>
-      </c>
-      <c r="O119" s="35"/>
-      <c r="P119" s="30"/>
-      <c r="Q119" s="30"/>
+      <c r="C119" s="28"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="I119" s="26"/>
+      <c r="J119" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" s="24"/>
+      <c r="M119" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N119" s="26" t="n">
+        <v>15</v>
+      </c>
+      <c r="O119" s="33"/>
+      <c r="P119" s="28"/>
+      <c r="Q119" s="28"/>
     </row>
     <row r="120" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="s">
@@ -5033,31 +5021,31 @@
       <c r="B120" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C120" s="30"/>
-      <c r="D120" s="30"/>
-      <c r="E120" s="30"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H120" s="28" t="n">
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="33" t="s">
+      <c r="I120" s="26"/>
+      <c r="J120" s="26"/>
+      <c r="K120" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L120" s="26"/>
-      <c r="M120" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N120" s="28" t="n">
+      <c r="L120" s="24"/>
+      <c r="M120" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N120" s="26" t="n">
         <v>16</v>
       </c>
-      <c r="O120" s="35"/>
-      <c r="P120" s="30"/>
-      <c r="Q120" s="30"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="28"/>
+      <c r="Q120" s="28"/>
     </row>
     <row r="121" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="s">
@@ -5066,37 +5054,37 @@
       <c r="B121" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="28" t="n">
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="I121" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J121" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K121" s="32" t="s">
+      <c r="I121" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="L121" s="26"/>
-      <c r="M121" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N121" s="28" t="n">
+      <c r="L121" s="24"/>
+      <c r="M121" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N121" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="O121" s="36"/>
-      <c r="P121" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q121" s="32" t="s">
+      <c r="O121" s="34"/>
+      <c r="P121" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q121" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5107,33 +5095,33 @@
       <c r="B122" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C122" s="30"/>
-      <c r="D122" s="30"/>
-      <c r="E122" s="30"/>
-      <c r="F122" s="26"/>
-      <c r="G122" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="28" t="n">
+      <c r="C122" s="28"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="28"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H122" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="33" t="s">
+      <c r="I122" s="33"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L122" s="26"/>
-      <c r="M122" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N122" s="28" t="n">
+      <c r="L122" s="24"/>
+      <c r="M122" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N122" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="O122" s="28"/>
-      <c r="P122" s="34" t="s">
+      <c r="O122" s="26"/>
+      <c r="P122" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="Q122" s="32" t="s">
+      <c r="Q122" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5144,33 +5132,33 @@
       <c r="B123" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="28" t="n">
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="33" t="s">
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L123" s="26"/>
-      <c r="M123" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N123" s="28" t="n">
+      <c r="L123" s="24"/>
+      <c r="M123" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N123" s="26" t="n">
         <v>19</v>
       </c>
-      <c r="O123" s="28"/>
-      <c r="P123" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q123" s="32" t="s">
+      <c r="O123" s="26"/>
+      <c r="P123" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q123" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5181,33 +5169,33 @@
       <c r="B124" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H124" s="28" t="n">
+      <c r="C124" s="28"/>
+      <c r="D124" s="28"/>
+      <c r="E124" s="28"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="I124" s="28"/>
-      <c r="J124" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K124" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L124" s="26"/>
-      <c r="M124" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N124" s="28" t="n">
+      <c r="I124" s="26"/>
+      <c r="J124" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124" s="24"/>
+      <c r="M124" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N124" s="26" t="n">
         <v>20</v>
       </c>
-      <c r="O124" s="28"/>
-      <c r="P124" s="28"/>
-      <c r="Q124" s="28"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="26"/>
+      <c r="Q124" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="s">
@@ -5216,37 +5204,37 @@
       <c r="B125" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="28" t="n">
+      <c r="C125" s="28"/>
+      <c r="D125" s="28"/>
+      <c r="E125" s="28"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="I125" s="28"/>
-      <c r="J125" s="34" t="s">
+      <c r="I125" s="26"/>
+      <c r="J125" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K125" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L125" s="26"/>
-      <c r="M125" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N125" s="28" t="n">
+      <c r="K125" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L125" s="24"/>
+      <c r="M125" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N125" s="26" t="n">
         <v>21</v>
       </c>
-      <c r="O125" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="P125" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q125" s="32" t="s">
+      <c r="O125" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="P125" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q125" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5257,35 +5245,35 @@
       <c r="B126" s="7" t="n">
         <v>22</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="26"/>
-      <c r="G126" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H126" s="28" t="n">
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="I126" s="28"/>
-      <c r="J126" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K126" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L126" s="26"/>
-      <c r="M126" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N126" s="28" t="n">
+      <c r="I126" s="26"/>
+      <c r="J126" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" s="24"/>
+      <c r="M126" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N126" s="26" t="n">
         <v>22</v>
       </c>
-      <c r="O126" s="30"/>
-      <c r="P126" s="30"/>
-      <c r="Q126" s="30"/>
+      <c r="O126" s="28"/>
+      <c r="P126" s="28"/>
+      <c r="Q126" s="28"/>
     </row>
     <row r="127" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="s">
@@ -5294,35 +5282,35 @@
       <c r="B127" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="34" t="s">
+      <c r="C127" s="26"/>
+      <c r="D127" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E127" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="26"/>
-      <c r="G127" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H127" s="28" t="n">
+      <c r="E127" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="24"/>
+      <c r="G127" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="33" t="s">
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L127" s="26"/>
-      <c r="M127" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N127" s="28" t="n">
+      <c r="L127" s="24"/>
+      <c r="M127" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N127" s="26" t="n">
         <v>23</v>
       </c>
-      <c r="O127" s="30"/>
-      <c r="P127" s="30"/>
-      <c r="Q127" s="30"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="28"/>
     </row>
     <row r="128" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="s">
@@ -5331,41 +5319,41 @@
       <c r="B128" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="C128" s="28"/>
-      <c r="D128" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="26"/>
-      <c r="G128" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H128" s="28" t="n">
+      <c r="C128" s="26"/>
+      <c r="D128" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="24"/>
+      <c r="G128" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H128" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="I128" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J128" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K128" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L128" s="26"/>
-      <c r="M128" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="N128" s="28" t="n">
+      <c r="I128" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="24"/>
+      <c r="M128" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="N128" s="26" t="n">
         <v>24</v>
       </c>
-      <c r="O128" s="28"/>
-      <c r="P128" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q128" s="32" t="s">
+      <c r="O128" s="26"/>
+      <c r="P128" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q128" s="30" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5376,33 +5364,33 @@
       <c r="B129" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H129" s="28" t="n">
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="I129" s="30"/>
-      <c r="J129" s="30"/>
-      <c r="K129" s="33" t="s">
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L129" s="26"/>
-      <c r="M129" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="N129" s="28" t="n">
+      <c r="L129" s="24"/>
+      <c r="M129" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="O129" s="42"/>
-      <c r="P129" s="43" t="s">
+      <c r="O129" s="40"/>
+      <c r="P129" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q129" s="44" t="s">
+      <c r="Q129" s="42" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5413,39 +5401,39 @@
       <c r="B130" s="7" t="n">
         <v>26</v>
       </c>
-      <c r="C130" s="33" t="s">
+      <c r="C130" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D130" s="32" t="s">
+      <c r="D130" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E130" s="33" t="s">
+      <c r="E130" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F130" s="26"/>
-      <c r="G130" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="H130" s="28" t="n">
+      <c r="F130" s="24"/>
+      <c r="G130" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H130" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="I130" s="30"/>
-      <c r="J130" s="30"/>
-      <c r="K130" s="33" t="s">
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L130" s="26"/>
-      <c r="M130" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="N130" s="28" t="n">
+      <c r="L130" s="24"/>
+      <c r="M130" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N130" s="26" t="n">
         <v>26</v>
       </c>
-      <c r="O130" s="28"/>
-      <c r="P130" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q130" s="33" t="s">
+      <c r="O130" s="26"/>
+      <c r="P130" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q130" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5456,31 +5444,31 @@
       <c r="B131" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H131" s="28" t="n">
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="33" t="s">
+      <c r="I131" s="26"/>
+      <c r="J131" s="26"/>
+      <c r="K131" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L131" s="26"/>
-      <c r="M131" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N131" s="28" t="n">
+      <c r="L131" s="24"/>
+      <c r="M131" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N131" s="26" t="n">
         <v>27</v>
       </c>
-      <c r="O131" s="36"/>
-      <c r="P131" s="28"/>
-      <c r="Q131" s="28"/>
+      <c r="O131" s="34"/>
+      <c r="P131" s="26"/>
+      <c r="Q131" s="26"/>
     </row>
     <row r="132" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="s">
@@ -5489,37 +5477,37 @@
       <c r="B132" s="7" t="n">
         <v>28</v>
       </c>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
-      <c r="E132" s="30"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="28" t="n">
+      <c r="C132" s="28"/>
+      <c r="D132" s="28"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="I132" s="28"/>
-      <c r="J132" s="34" t="s">
+      <c r="I132" s="26"/>
+      <c r="J132" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K132" s="33" t="s">
+      <c r="K132" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L132" s="26"/>
-      <c r="M132" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="N132" s="28" t="n">
+      <c r="L132" s="24"/>
+      <c r="M132" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="N132" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="O132" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="P132" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q132" s="33" t="s">
+      <c r="O132" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="P132" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q132" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5530,35 +5518,35 @@
       <c r="B133" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="26"/>
-      <c r="G133" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" s="28" t="n">
+      <c r="C133" s="34"/>
+      <c r="D133" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="24"/>
+      <c r="G133" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="33" t="s">
+      <c r="I133" s="26"/>
+      <c r="J133" s="26"/>
+      <c r="K133" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L133" s="26"/>
-      <c r="M133" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="N133" s="28" t="n">
+      <c r="L133" s="24"/>
+      <c r="M133" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="N133" s="26" t="n">
         <v>29</v>
       </c>
-      <c r="O133" s="30"/>
-      <c r="P133" s="30"/>
-      <c r="Q133" s="30"/>
+      <c r="O133" s="28"/>
+      <c r="P133" s="28"/>
+      <c r="Q133" s="28"/>
     </row>
     <row r="134" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="s">
@@ -5567,64 +5555,64 @@
       <c r="B134" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="C134" s="28"/>
-      <c r="D134" s="34" t="s">
+      <c r="C134" s="26"/>
+      <c r="D134" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="26"/>
-      <c r="G134" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H134" s="28" t="n">
+      <c r="E134" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="24"/>
+      <c r="G134" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="I134" s="40" t="s">
+      <c r="I134" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="J134" s="41"/>
-      <c r="K134" s="33" t="s">
+      <c r="J134" s="39"/>
+      <c r="K134" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L134" s="26"/>
-      <c r="M134" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="N134" s="28" t="n">
+      <c r="L134" s="24"/>
+      <c r="M134" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="N134" s="26" t="n">
         <v>30</v>
       </c>
-      <c r="O134" s="30"/>
-      <c r="P134" s="30"/>
-      <c r="Q134" s="30"/>
+      <c r="O134" s="28"/>
+      <c r="P134" s="28"/>
+      <c r="Q134" s="28"/>
     </row>
     <row r="135" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="45"/>
-      <c r="G135" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" s="28" t="n">
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="26" t="n">
         <v>31</v>
       </c>
-      <c r="I135" s="40" t="s">
+      <c r="I135" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J135" s="41"/>
-      <c r="K135" s="33" t="s">
+      <c r="J135" s="39"/>
+      <c r="K135" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L135" s="45"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="28"/>
-      <c r="O135" s="28"/>
-      <c r="P135" s="28"/>
-      <c r="Q135" s="28"/>
+      <c r="L135" s="43"/>
+      <c r="M135" s="27"/>
+      <c r="N135" s="26"/>
+      <c r="O135" s="26"/>
+      <c r="P135" s="26"/>
+      <c r="Q135" s="26"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/flyers/Grimbergen_2018-2019.xlsx
+++ b/flyers/Grimbergen_2018-2019.xlsx
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I78" activeCellId="0" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3479,14 +3479,14 @@
       <c r="H78" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="I78" s="31" t="s">
-        <v>14</v>
+      <c r="I78" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="J78" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K78" s="31" t="s">
-        <v>14</v>
+      <c r="K78" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
@@ -3744,14 +3744,14 @@
       <c r="H85" s="26" t="n">
         <v>15</v>
       </c>
-      <c r="I85" s="29" t="s">
-        <v>15</v>
+      <c r="I85" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="J85" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="30" t="s">
-        <v>15</v>
+      <c r="K85" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="L85" s="24"/>
       <c r="M85" s="27" t="s">

--- a/flyers/Grimbergen_2018-2019.xlsx
+++ b/flyers/Grimbergen_2018-2019.xlsx
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I78" activeCellId="0" sqref="I78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B69" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3336,8 +3336,8 @@
         <v>4</v>
       </c>
       <c r="I74" s="26"/>
-      <c r="J74" s="31" t="s">
-        <v>14</v>
+      <c r="J74" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="K74" s="30" t="s">
         <v>15</v>
@@ -3696,8 +3696,8 @@
         <v>14</v>
       </c>
       <c r="C84" s="34"/>
-      <c r="D84" s="30" t="s">
-        <v>15</v>
+      <c r="D84" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>15</v>
@@ -3975,8 +3975,8 @@
         <v>21</v>
       </c>
       <c r="C91" s="26"/>
-      <c r="D91" s="31" t="s">
-        <v>14</v>
+      <c r="D91" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>15</v>
@@ -4246,8 +4246,8 @@
         <v>28</v>
       </c>
       <c r="C98" s="34"/>
-      <c r="D98" s="30" t="s">
-        <v>15</v>
+      <c r="D98" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>15</v>

--- a/flyers/Grimbergen_2018-2019.xlsx
+++ b/flyers/Grimbergen_2018-2019.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="42">
   <si>
     <t xml:space="preserve"> Juli 2018</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pinksteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koers in Grimbergen</t>
   </si>
   <si>
     <t xml:space="preserve">Paasmaandag</t>
@@ -698,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B69" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D104" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O122" activeCellId="0" sqref="O122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4969,15 +4972,11 @@
       <c r="N118" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="O118" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="P118" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q118" s="31" t="s">
-        <v>14</v>
-      </c>
+      <c r="O118" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="P118" s="39"/>
+      <c r="Q118" s="39"/>
     </row>
     <row r="119" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="s">
@@ -5246,7 +5245,7 @@
         <v>22</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" s="39"/>
       <c r="E126" s="39"/>
@@ -5402,13 +5401,13 @@
         <v>26</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D130" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F130" s="24"/>
       <c r="G130" s="27" t="s">
@@ -5570,7 +5569,7 @@
         <v>30</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J134" s="39"/>
       <c r="K134" s="31" t="s">
@@ -5601,7 +5600,7 @@
         <v>31</v>
       </c>
       <c r="I135" s="38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J135" s="39"/>
       <c r="K135" s="31" t="s">

--- a/flyers/Grimbergen_2018-2019.xlsx
+++ b/flyers/Grimbergen_2018-2019.xlsx
@@ -701,8 +701,8 @@
   </sheetPr>
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D104" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O122" activeCellId="0" sqref="O122"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A102" colorId="64" zoomScale="75" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O116" activeCellId="0" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4899,11 +4899,11 @@
         <v>12</v>
       </c>
       <c r="O116" s="26"/>
-      <c r="P116" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q116" s="31" t="s">
-        <v>14</v>
+      <c r="P116" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q116" s="30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
